--- a/medicine/Médecine vétérinaire/Pourriture_bactérienne_des_nageoires/Pourriture_bactérienne_des_nageoires.xlsx
+++ b/medicine/Médecine vétérinaire/Pourriture_bactérienne_des_nageoires/Pourriture_bactérienne_des_nageoires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pourriture_bact%C3%A9rienne_des_nageoires</t>
+          <t>Pourriture_bactérienne_des_nageoires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie de la Pourriture bactérienne des nageoires ou Flavobacterium columnare est une bactérie responsable d’une infection connue sous le nom de columnariose qui affecte de nombreuses espèces de poissons d’eau douce. Ces poissons constituent le principal réservoir de germes car, la survie de Flavobacterium columnare est limitée à 77 heures dans une eau à 20 °C et à 16 jours dans une eau alcaline, riche en matière organique et à une température de 25 °C. 
 Cette bactérie, dont la virulence est très variable selon les souches, est pathogène pour les salmonidés, les cyprinidés, les anguillidés, les poissons d’aquarium,... La maladie est déclenchée principalement par un réchauffement de l’eau (la mortalité se produit généralement à une température supérieure à 14 °C et la majorité des cas d’infections s’observent pour une température comprise entre 20 et 30 °C) mais, les souches très pathogènes peuvent tuer les poissons même à basse température. Accessoirement, les stress (pauvreté en oxygène, carences alimentaires, pollutions, surpopulation,...) favorisent l’apparition de signes cliniques.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pourriture_bact%C3%A9rienne_des_nageoires</t>
+          <t>Pourriture_bactérienne_des_nageoires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Autres informations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de l’aquariophilie   Portail de l’ichtyologie   Portail de la médecine vétérinaire                   </t>
         </is>
